--- a/Module1Homework-JULY/July80-20RuleandParetoHW.xlsx
+++ b/Module1Homework-JULY/July80-20RuleandParetoHW.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CertTFS\Online-Content\Courses\ENG\DAT222x - Essential Statistics for Data Analysis using Excel\Module 1\Module 1 Files\Homework\July 2017 Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferryto\Documents\GitHub\DAT222x\Module1Homework-JULY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="9683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="9680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Problem 2" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Problem 1'!$E$7:$E$106</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Problem 1'!$F$6</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Problem 2'!$F$495</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Problem 1'!$F$7:$F$106</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$30:$A$34</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$30:$B$34</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$30:$A$34</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$30:$B$34</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Problem 2'!$F$13:$F$494</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Problem 2'!$F$495</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Problem 2'!$F$13:$F$494</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="27" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="122">
   <si>
     <t>Customer Code</t>
   </si>
@@ -382,6 +401,15 @@
   </si>
   <si>
     <t>account for approximately 70% of</t>
+  </si>
+  <si>
+    <t>Count of Cause</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -426,10 +454,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,6 +478,5370 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[July80-20RuleandParetoHW.xlsx]Sheet2!PivotTable16</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-HK"/>
+              <a:t>Count of Cause</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Child care</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Emergency</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Subway</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Traffic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Weather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F83-4D3B-962C-5838CACC420B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1844771823"/>
+        <c:axId val="1744158527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1844771823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1744158527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1744158527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844771823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{46B66F4A-42F3-4401-BAD1-28D8A4AE1387}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Revenue</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{9C4E0626-F065-45AC-A45F-63A92A487E03}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E93312FB-3EDB-4CBD-97E8-7BAC1657A226}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{F8F2ABCF-DCD7-4914-80AE-8CABC87E69FC}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8402537A-9CE8-422A-8A6B-469176CC9F0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4295775" y="885825"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-HK" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC74D8C9-0E38-4C66-A9F7-0ECFEDC541AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828B520B-4B39-44F4-BCA2-387BC3089BBD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1819275" y="5051425"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-HK" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ferry To" refreshedDate="42992.695785648146" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="482" xr:uid="{BBF4E0C8-B94F-4F41-B27C-D2F1FBBB7E0C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F13:F495" sheet="Problem 2"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Cause" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Subway"/>
+        <s v="Traffic"/>
+        <s v="Emergency"/>
+        <s v="Child care"/>
+        <s v="Weather"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ferry To" refreshedDate="42992.696551967594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="482" xr:uid="{2C722F39-2066-421A-9012-934ECE8EFA25}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F13:F495" sheet="Problem 2"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Cause" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Subway"/>
+        <s v="Traffic"/>
+        <s v="Emergency"/>
+        <s v="Child care"/>
+        <s v="Weather"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="482">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="482">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DF05545-5065-4102-B7ED-9C91CB3D0FFE}" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982EEB0B-D171-442F-9411-946B21F3FC2D}" name="PivotTable16" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Cause" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,18 +6144,18 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F106"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -766,7 +6163,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>103</v>
       </c>
@@ -774,7 +6171,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>104</v>
       </c>
@@ -782,7 +6179,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>105</v>
       </c>
@@ -790,7 +6187,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
@@ -798,7 +6195,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>0</v>
       </c>
@@ -806,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -815,7 +6212,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -825,7 +6222,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -833,7 +6230,7 @@
         <v>117.84994803024651</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -842,7 +6239,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>6</v>
       </c>
@@ -851,7 +6248,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>7</v>
       </c>
@@ -860,7 +6257,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>8</v>
       </c>
@@ -868,7 +6265,7 @@
         <v>18113.913521228264</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -876,7 +6273,7 @@
         <v>23.224577197114613</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>10</v>
       </c>
@@ -884,7 +6281,7 @@
         <v>244.76600859774706</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>11</v>
       </c>
@@ -892,7 +6289,7 @@
         <v>21308.380726173251</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>12</v>
       </c>
@@ -900,7 +6297,7 @@
         <v>9459.314357740659</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>13</v>
       </c>
@@ -908,7 +6305,7 @@
         <v>1145.1532391074049</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>14</v>
       </c>
@@ -916,7 +6313,7 @@
         <v>40804.031999999999</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>15</v>
       </c>
@@ -924,7 +6321,7 @@
         <v>48.235804571157146</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>16</v>
       </c>
@@ -932,7 +6329,7 @@
         <v>6302.5204528392151</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>17</v>
       </c>
@@ -940,7 +6337,7 @@
         <v>1055.8312864570273</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>18</v>
       </c>
@@ -948,7 +6345,7 @@
         <v>14197.276912960984</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>19</v>
       </c>
@@ -956,7 +6353,7 @@
         <v>18.202899846433485</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>20</v>
       </c>
@@ -964,7 +6361,7 @@
         <v>37621.317503999999</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>21</v>
       </c>
@@ -972,7 +6369,7 @@
         <v>61.542730904343571</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>22</v>
       </c>
@@ -980,7 +6377,7 @@
         <v>4554.4710715675837</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>23</v>
       </c>
@@ -988,7 +6385,7 @@
         <v>338.70953423712598</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -996,7 +6393,7 @@
         <v>41.004485693067558</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +6401,7 @@
         <v>973.47644611337921</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +6409,7 @@
         <v>108.65765208388729</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>27</v>
       </c>
@@ -1020,7 +6417,7 @@
         <v>23111.042002357102</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +6425,7 @@
         <v>127.81990024972505</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +6433,7 @@
         <v>78.520670710014556</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +6441,7 @@
         <v>16.783073658411674</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>31</v>
       </c>
@@ -1052,7 +6449,7 @@
         <v>11127.505467389879</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>32</v>
       </c>
@@ -1060,7 +6457,7 @@
         <v>85.163417255981074</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>33</v>
       </c>
@@ -1068,7 +6465,7 @@
         <v>5357.6717966313718</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>34</v>
       </c>
@@ -1076,7 +6473,7 @@
         <v>468.70947988399223</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
         <v>35</v>
       </c>
@@ -1084,7 +6481,7 @@
         <v>32.138391153065001</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
         <v>36</v>
       </c>
@@ -1092,7 +6489,7 @@
         <v>52.316490858088009</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
         <v>37</v>
       </c>
@@ -1100,7 +6497,7 @@
         <v>34686.854738688002</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +6505,7 @@
         <v>897.54528331653569</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>39</v>
       </c>
@@ -1116,7 +6513,7 @@
         <v>2378.4023010104565</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
         <v>40</v>
       </c>
@@ -1124,7 +6521,7 @@
         <v>551.36842933638582</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
         <v>41</v>
       </c>
@@ -1132,7 +6529,7 @@
         <v>3569.6917134630667</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +6537,7 @@
         <v>21.413060175739673</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
         <v>43</v>
       </c>
@@ -1148,7 +6545,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
         <v>44</v>
       </c>
@@ -1156,7 +6553,7 @@
         <v>163.08188067402142</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
         <v>45</v>
       </c>
@@ -1164,7 +6561,7 @@
         <v>1347.1059790648981</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>46</v>
       </c>
@@ -1172,7 +6569,7 @@
         <v>44.473411814606891</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +6577,7 @@
         <v>1718.7353151106458</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
         <v>48</v>
       </c>
@@ -1188,7 +6585,7 @@
         <v>3871.682986402458</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
         <v>49</v>
       </c>
@@ -1196,7 +6593,7 @@
         <v>29486.740223682857</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
         <v>50</v>
       </c>
@@ -1204,7 +6601,7 @@
         <v>27186.774486235594</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
         <v>51</v>
       </c>
@@ -1212,7 +6609,7 @@
         <v>92.368131514079252</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
         <v>52</v>
       </c>
@@ -1220,7 +6617,7 @@
         <v>25066.206076309219</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
         <v>53</v>
       </c>
@@ -1228,7 +6625,7 @@
         <v>598.013480842067</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
         <v>54</v>
       </c>
@@ -1236,7 +6633,7 @@
         <v>398.4424294977037</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
         <v>55</v>
       </c>
@@ -1244,7 +6641,7 @@
         <v>1584.6739605320156</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +6649,7 @@
         <v>4199.2223279853124</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
         <v>57</v>
       </c>
@@ -1260,7 +6657,7 @@
         <v>29.631596643125931</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +6665,7 @@
         <v>66.749165839852026</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
         <v>59</v>
       </c>
@@ -1276,7 +6673,7 @@
         <v>1242.0317126978362</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E65" t="s">
         <v>60</v>
       </c>
@@ -1284,7 +6681,7 @@
         <v>2579.6120401414928</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E66" t="s">
         <v>61</v>
       </c>
@@ -1292,7 +6689,7 @@
         <v>432.15014045304088</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E67" t="s">
         <v>62</v>
       </c>
@@ -1300,7 +6697,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E68" t="s">
         <v>63</v>
       </c>
@@ -1308,7 +6705,7 @@
         <v>8721.4878378368885</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
         <v>64</v>
       </c>
@@ -1316,7 +6713,7 @@
         <v>762.9888846228539</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
         <v>65</v>
       </c>
@@ -1324,7 +6721,7 @@
         <v>703.47575162227133</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E71" t="s">
         <v>66</v>
       </c>
@@ -1332,7 +6729,7 @@
         <v>27.320332104962109</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E72" t="s">
         <v>67</v>
       </c>
@@ -1340,7 +6737,7 @@
         <v>191.84207757588828</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E73" t="s">
         <v>68</v>
       </c>
@@ -1348,7 +6745,7 @@
         <v>3291.2557598129474</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E74" t="s">
         <v>69</v>
       </c>
@@ -1356,7 +6753,7 @@
         <v>208.07166765280724</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E75" t="s">
         <v>70</v>
       </c>
@@ -1364,7 +6761,7 @@
         <v>72.396058394633428</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E76" t="s">
         <v>71</v>
       </c>
@@ -1372,7 +6769,7 @@
         <v>2797.8438613248295</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E77" t="s">
         <v>72</v>
       </c>
@@ -1380,7 +6777,7 @@
         <v>7413.9972671397345</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E78" t="s">
         <v>73</v>
       </c>
@@ -1388,7 +6785,7 @@
         <v>12068.877947277526</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E79" t="s">
         <v>74</v>
       </c>
@@ -1396,7 +6793,7 @@
         <v>15.473993913055564</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E80" t="s">
         <v>75</v>
       </c>
@@ -1404,7 +6801,7 @@
         <v>3034.5378105475374</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E81" t="s">
         <v>76</v>
       </c>
@@ -1412,7 +6809,7 @@
         <v>15398.348061779809</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E82" t="s">
         <v>77</v>
       </c>
@@ -1420,7 +6817,7 @@
         <v>225.67425992712279</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E83" t="s">
         <v>78</v>
       </c>
@@ -1428,7 +6825,7 @@
         <v>138.63329745089484</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E84" t="s">
         <v>79</v>
       </c>
@@ -1436,7 +6833,7 @@
         <v>4939.7733964941253</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E85" t="s">
         <v>80</v>
       </c>
@@ -1444,7 +6841,7 @@
         <v>19646.327029531738</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E86" t="s">
         <v>81</v>
       </c>
@@ -1452,7 +6849,7 @@
         <v>176.87839552496899</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E87" t="s">
         <v>82</v>
       </c>
@@ -1460,7 +6857,7 @@
         <v>827.5367512178459</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E88" t="s">
         <v>83</v>
       </c>
@@ -1468,7 +6865,7 @@
         <v>100.18235522134408</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E89" t="s">
         <v>84</v>
       </c>
@@ -1476,7 +6873,7 @@
         <v>1864.1380858033035</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E90" t="s">
         <v>85</v>
       </c>
@@ -1484,7 +6881,7 @@
         <v>2192.8869215316408</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
         <v>86</v>
       </c>
@@ -1492,7 +6889,7 @@
         <v>56.742397893804778</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +6897,7 @@
         <v>150.36149398144775</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
         <v>88</v>
       </c>
@@ -1508,7 +6905,7 @@
         <v>25.189346200775066</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
         <v>89</v>
       </c>
@@ -1516,7 +6913,7 @@
         <v>16701.028266572459</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E95" t="s">
         <v>90</v>
       </c>
@@ -1524,7 +6921,7 @@
         <v>265.47289435764321</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E96" t="s">
         <v>91</v>
       </c>
@@ -1532,7 +6929,7 @@
         <v>508.36169184814776</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E97" t="s">
         <v>92</v>
       </c>
@@ -1540,7 +6937,7 @@
         <v>6835.7054803028359</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E98" t="s">
         <v>93</v>
       </c>
@@ -1548,7 +6945,7 @@
         <v>10259.560040933469</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E99" t="s">
         <v>94</v>
       </c>
@@ -1556,7 +6953,7 @@
         <v>8041.2117864856118</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E100" t="s">
         <v>95</v>
       </c>
@@ -1564,7 +6961,7 @@
         <v>19.742841482031981</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E101" t="s">
         <v>96</v>
       </c>
@@ -1572,7 +6969,7 @@
         <v>13089.889313750027</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E102" t="s">
         <v>97</v>
       </c>
@@ -1580,7 +6977,7 @@
         <v>312.29019056663014</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E103" t="s">
         <v>98</v>
       </c>
@@ -1592,7 +6989,7 @@
         <v>0.92268083459058836</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E104" t="s">
         <v>99</v>
       </c>
@@ -1600,7 +6997,7 @@
         <v>2021.8417416521729</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E105" t="s">
         <v>100</v>
       </c>
@@ -1608,7 +7005,7 @@
         <v>37.806135809008289</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E106" t="s">
         <v>101</v>
       </c>
@@ -1621,20 +7018,182 @@
     <sortCondition ref="G7:G106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F3AF80-2418-49FF-8A8E-6DCEBD909C70}">
+  <dimension ref="A3:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EC4F1B-2A7A-4CD0-AE13-CB5F6C83D6FC}">
+  <dimension ref="A3:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:F495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F495"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>107</v>
       </c>
@@ -1642,7 +7201,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>108</v>
       </c>
@@ -1650,7 +7209,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>109</v>
       </c>
@@ -1658,7 +7217,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
         <v>110</v>
       </c>
@@ -1666,7 +7225,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>118</v>
       </c>
@@ -1674,7 +7233,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
         <v>111</v>
       </c>
@@ -1682,2417 +7241,2417 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F56" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F58" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F59" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F60" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F61" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F62" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F63" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F64" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F67" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F68" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F71" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F72" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F73" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F74" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F75" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F76" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F77" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F78" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F81" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F83" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F84" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F86" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F87" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F88" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F89" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F90" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F91" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F92" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F93" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F94" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F95" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F96" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F97" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F98" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F99" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F100" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F103" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F104" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F106" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F108" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F109" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F110" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F111" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F112" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F114" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F115" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F116" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F117" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F118" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F119" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F122" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F123" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F124" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F125" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F126" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F127" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F128" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F129" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F130" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F131" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F132" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F133" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F134" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F135" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F136" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F137" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F138" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F139" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F140" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F141" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F142" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F143" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F144" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F145" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F146" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F147" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F148" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F149" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F150" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F151" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F152" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F153" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F154" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F155" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F156" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F157" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F158" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F159" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F160" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F161" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F162" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F163" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F164" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F165" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F166" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F167" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F168" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F169" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F170" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F171" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F172" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F173" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F174" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F175" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F176" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F177" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F178" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F179" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F180" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F181" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F182" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F183" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F184" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F185" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F186" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F187" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F188" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F189" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F190" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F191" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F192" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F193" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F194" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F195" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F196" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F197" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F198" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F199" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F200" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F201" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F202" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F203" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F204" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F205" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F206" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F207" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F208" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F209" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F210" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F211" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F212" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F213" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F214" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F215" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F216" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F217" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F218" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F219" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F220" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F221" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F222" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F223" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F224" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F225" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F226" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F227" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F228" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F229" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F230" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F231" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F232" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F233" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F234" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F235" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F236" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F237" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F238" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F239" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F240" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F241" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F243" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F244" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F245" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F246" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F247" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F248" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F249" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F250" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F251" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F252" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F253" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F254" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F255" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F256" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F257" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F258" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F259" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F260" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F261" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F262" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F263" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F264" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F265" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F266" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F267" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F268" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F269" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F270" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F271" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F272" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F273" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F274" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F275" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F276" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F277" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F278" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F279" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F280" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F281" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F282" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F283" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F284" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F285" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F286" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F287" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F288" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="289" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F289" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="290" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F290" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="291" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F291" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="292" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F292" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="293" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F293" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="294" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F294" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="295" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F295" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="296" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F296" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="297" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F297" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="298" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F298" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="299" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F299" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="300" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F300" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="301" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F301" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="302" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F302" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="303" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F303" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="304" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F304" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="305" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F305" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="306" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F306" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="307" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F307" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="308" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F308" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="309" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F309" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="310" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F310" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="311" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F311" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="312" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F312" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="313" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F313" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="314" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F314" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="315" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F315" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="316" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F316" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="317" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F317" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="318" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F318" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="319" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F319" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="320" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F320" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="321" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F321" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="322" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F322" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="323" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F323" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="324" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F324" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="325" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="325" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F325" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="326" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="326" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F326" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="327" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="327" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F327" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="328" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="328" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F328" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="329" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="329" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F329" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="330" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="330" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F330" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="331" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="331" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F331" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="332" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="332" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F332" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="333" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="333" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F333" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="334" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="334" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F334" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="335" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="335" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F335" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="336" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="336" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F336" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="337" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="337" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F337" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="338" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="338" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F338" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="339" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="339" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F339" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="340" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="340" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F340" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="341" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="341" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F341" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="342" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="342" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F342" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="343" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="343" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F343" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="344" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="344" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F344" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="345" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="345" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F345" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="346" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="346" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F346" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="347" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="347" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F347" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="348" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="348" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F348" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="349" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="349" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F349" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="350" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="350" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F350" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="351" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="351" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F351" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="352" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="352" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F352" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="353" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="353" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F353" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="354" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="354" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F354" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="355" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="355" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F355" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="356" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="356" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F356" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="357" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="357" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F357" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="358" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="358" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F358" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="359" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="359" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F359" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="360" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="360" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F360" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="361" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="361" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F361" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="362" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="362" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F362" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="363" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="363" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F363" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="364" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="364" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F364" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="365" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="365" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F365" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="366" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="366" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F366" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="367" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="367" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F367" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="368" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="368" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F368" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="369" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="369" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F369" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="370" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="370" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F370" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="371" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="371" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F371" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="372" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="372" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F372" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="373" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="373" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F373" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="374" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="374" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F374" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="375" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="375" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F375" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="376" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="376" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F376" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="377" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="377" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F377" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="378" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="378" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F378" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="379" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="379" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F379" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="380" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="380" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F380" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="381" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="381" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F381" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="382" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="382" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F382" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="383" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="383" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F383" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="384" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="384" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F384" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="385" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="385" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F385" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="386" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="386" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F386" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="387" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="387" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F387" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="388" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="388" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F388" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="389" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="389" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F389" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="390" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="390" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F390" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="391" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="391" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F391" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="392" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="392" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F392" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="393" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="393" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F393" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="394" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="394" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F394" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="395" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="395" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F395" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="396" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="396" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F396" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="397" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="397" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F397" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="398" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="398" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F398" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="399" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="399" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F399" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="400" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="400" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F400" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="401" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="401" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F401" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="402" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="402" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F402" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="403" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="403" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F403" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="404" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="404" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F404" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="405" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="405" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F405" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="406" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="406" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F406" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="407" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="407" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F407" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="408" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="408" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F408" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="409" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="409" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F409" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="410" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="410" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F410" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="411" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="411" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F411" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="412" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="412" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F412" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="413" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="413" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F413" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="414" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="414" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F414" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="415" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="415" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F415" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="416" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="416" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F416" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="417" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="417" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F417" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="418" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="418" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F418" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="419" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="419" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F419" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="420" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="420" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F420" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="421" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="421" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F421" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="422" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="422" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F422" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="423" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="423" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F423" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="424" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="424" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F424" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="425" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="425" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F425" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="426" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="426" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F426" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="427" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="427" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F427" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="428" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="428" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F428" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="429" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="429" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F429" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="430" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="430" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F430" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="431" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="431" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F431" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="432" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="432" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F432" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="433" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="433" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F433" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="434" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="434" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F434" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="435" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="435" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F435" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="436" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="436" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F436" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="437" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="437" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F437" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="438" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="438" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F438" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="439" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="439" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F439" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="440" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="440" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F440" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="441" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="441" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F441" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="442" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="442" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F442" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="443" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="443" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F443" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="444" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="444" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F444" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="445" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="445" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F445" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="446" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="446" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F446" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="447" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="447" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F447" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="448" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="448" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F448" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="449" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="449" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F449" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="450" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="450" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F450" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="451" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="451" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F451" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="452" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="452" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F452" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="453" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="453" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F453" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="454" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="454" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F454" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="455" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="455" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F455" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="456" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="456" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F456" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="457" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="457" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F457" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="458" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="458" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F458" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="459" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="459" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F459" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="460" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="460" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F460" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="461" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="461" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F461" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="462" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="462" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F462" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="463" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="463" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F463" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="464" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="464" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F464" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="465" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="465" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F465" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="466" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="466" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F466" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="467" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="467" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F467" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="468" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="468" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F468" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="469" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="469" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F469" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="470" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="470" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F470" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="471" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="471" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F471" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="472" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="472" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F472" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="473" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="473" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F473" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="474" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="474" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F474" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="475" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="475" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F475" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="476" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="476" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F476" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="477" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="477" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F477" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="478" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="478" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F478" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="479" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="479" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F479" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="480" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="480" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F480" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="481" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="481" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F481" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="482" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="482" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F482" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="483" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="483" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F483" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="484" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="484" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F484" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="485" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="485" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F485" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="486" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="486" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F486" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="487" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="487" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F487" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="488" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="488" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F488" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="489" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="489" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F489" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="490" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="490" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F490" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="491" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="491" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F491" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="492" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="492" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F492" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="493" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="493" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F493" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="494" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="494" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F494" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="495" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="495" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F495" t="s">
         <v>114</v>
       </c>
